--- a/Interns_PCBs/pendulum_daughterboard/Bill of Materials Penduino Daugterboard.xlsx
+++ b/Interns_PCBs/pendulum_daughterboard/Bill of Materials Penduino Daugterboard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>Component Name</t>
   </si>
@@ -119,9 +119,6 @@
     <t>https://uk.farnell.com/on-semiconductor/mc74act00dg/ic-quad-nand-gate-2i-p-soic-14/dp/1652018?st=2%20input%20nand%20gate</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>logic IC AND Gate</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Current Sense Amplifier</t>
   </si>
   <si>
-    <t>D1,D2, D3</t>
-  </si>
-  <si>
     <t>Unit Price (ex. VAT)</t>
   </si>
   <si>
@@ -327,6 +321,48 @@
   </si>
   <si>
     <t>https://uk.farnell.com/amp-te-connectivity/826925-3/header-tht-vertical-2-54mm-6way/dp/1248132</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Q Boards</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Orange LED</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/kingbright/kpt-2012seck/led-orange-0805-smd/dp/2099237</t>
+  </si>
+  <si>
+    <t>KPT-2012SECK</t>
+  </si>
+  <si>
+    <t>LED Orange</t>
+  </si>
+  <si>
+    <t>LED Red</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/multicomp-pro/mp008293/led-red-220mcd-626nm-0805/dp/3796325</t>
+  </si>
+  <si>
+    <t>MP008293</t>
   </si>
 </sst>
 </file>
@@ -471,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -489,6 +525,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +828,7 @@
     <col min="10" max="10" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -798,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -816,24 +854,30 @@
         <v>23</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -843,28 +887,35 @@
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1">
         <v>0.63</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>42</v>
+      </c>
+      <c r="M2">
+        <f>I2*C2*L2</f>
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -874,20 +925,27 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="0">I3*C3*L3</f>
+        <v>23.939999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
@@ -895,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -915,10 +973,17 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>28.560000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -926,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -946,544 +1011,754 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>28.560000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>1.88</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>78.959999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1">
         <v>0.11</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.13</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <f>I10*C10*L10</f>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1">
-        <v>132</v>
-      </c>
-      <c r="D9" s="1">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="I11" s="1">
         <v>0.27</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1">
-        <v>88</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.18</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>42</v>
+      </c>
+      <c r="M11">
+        <f>I11*C11*L11</f>
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1">
         <v>0.17</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <f>I12*C12*L12</f>
+        <v>14.280000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1">
-        <v>0.69</v>
+        <v>0.18</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <f>I13*C13*L13</f>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <f>I14*C14*L14</f>
+        <v>7.1400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="I15" s="1">
-        <v>0.06</v>
+        <v>0.69</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <f>I15*C15*L15</f>
+        <v>28.979999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <f>I16*C16*L16</f>
+        <v>18.900000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <f>I17*C17*L17</f>
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.69</v>
+        <v>95</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.18</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L18">
+        <v>42</v>
+      </c>
+      <c r="M18">
+        <f>I18*C18*L18</f>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1">
-        <v>0.51200000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <f>I19*C19*L19</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.92400000000000004</v>
+        <v>96</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.69</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <f>I20*C20*L20</f>
+        <v>28.979999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="I21" s="1">
-        <v>0.42</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <f>I21*C21*L21</f>
+        <v>21.504000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <f>I22*C22*L22</f>
+        <v>38.808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <f>I23*C23*L23</f>
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="I24" s="6">
         <v>1.8140000000000001</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="13" t="s">
-        <v>44</v>
+      <c r="J24" s="6"/>
+      <c r="K24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24">
+        <v>42</v>
+      </c>
+      <c r="M24">
+        <f>I24*C24*L24</f>
+        <v>76.188000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f>SUM(M2:M24)</f>
+        <v>535.5</v>
       </c>
     </row>
   </sheetData>
@@ -1492,25 +1767,27 @@
     <hyperlink ref="H5" r:id="rId2"/>
     <hyperlink ref="H2" r:id="rId3"/>
     <hyperlink ref="H3" r:id="rId4"/>
-    <hyperlink ref="H22" r:id="rId5"/>
+    <hyperlink ref="H24" r:id="rId5"/>
     <hyperlink ref="H7" r:id="rId6"/>
     <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H8" r:id="rId12"/>
-    <hyperlink ref="H15" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="H21" r:id="rId16"/>
-    <hyperlink ref="H19" r:id="rId17"/>
-    <hyperlink ref="H20" r:id="rId18"/>
-    <hyperlink ref="H17" r:id="rId19"/>
-    <hyperlink ref="H16" r:id="rId20"/>
-    <hyperlink ref="H18" r:id="rId21"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H10" r:id="rId12"/>
+    <hyperlink ref="H17" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H23" r:id="rId16"/>
+    <hyperlink ref="H21" r:id="rId17"/>
+    <hyperlink ref="H22" r:id="rId18"/>
+    <hyperlink ref="H19" r:id="rId19"/>
+    <hyperlink ref="H18" r:id="rId20"/>
+    <hyperlink ref="H20" r:id="rId21"/>
+    <hyperlink ref="H8" r:id="rId22"/>
+    <hyperlink ref="H9" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>